--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -781,7 +781,7 @@
         <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -891,94 +891,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1034,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.29</v>
@@ -1055,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>13</v>
@@ -1070,19 +1070,19 @@
         <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="n">
         <v>11</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1180,7 +1180,7 @@
         <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
         <v>41</v>
@@ -1189,7 +1189,7 @@
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.53</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
         <v>23</v>
@@ -1439,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1466,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1528,16 +1528,16 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
         <v>23</v>
@@ -1561,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -1573,7 +1573,7 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1665,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1698,7 +1698,7 @@
         <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1760,16 +1760,16 @@
         <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1778,10 +1778,10 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>7</v>
@@ -1793,16 +1793,16 @@
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
@@ -1814,13 +1814,13 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -2233,19 +2233,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.3</v>
@@ -2266,25 +2266,25 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
         <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
@@ -2311,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2479,36 +2479,36 @@
         <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N17" t="n">
         <v>1.65</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S17" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="T17" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="U17" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="W17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
         <v>18</v>
@@ -2517,34 +2517,34 @@
         <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
         <v>35</v>
       </c>
-      <c r="AD17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
       <c r="AI17" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.17</v>
@@ -662,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N2" t="n">
         <v>3.5</v>
@@ -689,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -936,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
         <v>26</v>
@@ -948,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -963,7 +963,7 @@
         <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
@@ -1067,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1079,13 +1079,13 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1156,10 +1156,10 @@
         <v>4.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1168,10 +1168,10 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -1204,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1305,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
@@ -1314,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>7</v>
@@ -1329,7 +1329,7 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>17</v>
@@ -1379,73 +1379,73 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.4</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.7</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AA8" t="n">
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
@@ -1454,16 +1454,16 @@
         <v>7.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
         <v>15</v>
       </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>51</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U10" t="n">
         <v>8</v>
@@ -1671,7 +1671,7 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>19</v>
@@ -1704,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>41</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1766,49 +1766,49 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -1820,7 +1820,7 @@
         <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>13</v>
@@ -1876,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -1998,10 +1998,10 @@
         <v>2.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2266,25 +2266,25 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
@@ -2311,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2476,10 +2476,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="N17" t="n">
         <v>1.65</v>
@@ -2490,16 +2490,16 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="T17" t="n">
         <v>7.3</v>
       </c>
       <c r="U17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
         <v>7.2</v>
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2627,7 +2627,7 @@
         <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2654,16 +2654,16 @@
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>29</v>
@@ -2701,31 +2701,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2740,7 +2740,7 @@
         <v>1.67</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U19" t="n">
         <v>6.5</v>
@@ -2761,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2776,16 +2776,16 @@
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -2832,22 +2832,22 @@
         <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2892,7 +2892,7 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE20" t="n">
         <v>7.5</v>
@@ -2954,10 +2954,10 @@
         <v>2.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2966,10 +2966,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -2984,7 +2984,7 @@
         <v>1.73</v>
       </c>
       <c r="T21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U21" t="n">
         <v>15</v>
@@ -3014,13 +3014,13 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3032,7 +3032,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -662,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>3.5</v>
@@ -674,10 +674,10 @@
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
         <v>2.63</v>
@@ -781,7 +781,7 @@
         <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -838,10 +838,10 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1150,10 +1150,10 @@
         <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
         <v>1.65</v>
@@ -1168,25 +1168,25 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>34</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1269,7 +1269,7 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1314,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>7</v>
@@ -1329,7 +1329,7 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>17</v>
@@ -1406,10 +1406,10 @@
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
         <v>2.5</v>
@@ -1439,10 +1439,10 @@
         <v>4.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>101</v>
@@ -1457,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1510,10 +1510,10 @@
         <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1528,16 +1528,16 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>23</v>
@@ -1695,13 +1695,13 @@
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1778,10 +1778,10 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>6.5</v>
@@ -1817,13 +1817,13 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -1876,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.25</v>
@@ -1921,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -1998,10 +1998,10 @@
         <v>2.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2028,7 +2028,7 @@
         <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
         <v>17</v>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.2</v>
@@ -2248,16 +2248,16 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2266,19 +2266,19 @@
         <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
         <v>34</v>
@@ -2296,13 +2296,13 @@
         <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -2317,10 +2317,10 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2358,31 +2358,31 @@
         <v>22</v>
       </c>
       <c r="H16" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U16" t="n">
         <v>250</v>
@@ -2400,13 +2400,13 @@
         <v>250</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="n">
         <v>200</v>
@@ -2415,22 +2415,22 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AI16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2468,7 +2468,7 @@
         <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
         <v>3.4</v>
@@ -2476,10 +2476,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
         <v>1.65</v>
@@ -2490,16 +2490,16 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="T17" t="n">
         <v>7.3</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V17" t="n">
         <v>7.2</v>
@@ -2517,7 +2517,7 @@
         <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
@@ -2532,13 +2532,13 @@
         <v>10.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>1.22</v>
@@ -2618,13 +2618,13 @@
         <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
         <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
@@ -2657,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>34</v>
@@ -2701,19 +2701,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.33</v>
@@ -2734,10 +2734,10 @@
         <v>2.63</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
         <v>5.5</v>
@@ -2749,7 +2749,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -2764,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>81</v>
@@ -2773,7 +2773,7 @@
         <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
@@ -2838,16 +2838,16 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2856,13 +2856,13 @@
         <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
         <v>13</v>
@@ -2886,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>51</v>
@@ -2978,10 +2978,10 @@
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2996,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3020,7 +3020,7 @@
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -656,10 +656,10 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.73</v>
@@ -781,7 +781,7 @@
         <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -903,7 +903,7 @@
         <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1046,10 +1046,10 @@
         <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -1058,49 +1058,49 @@
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>41</v>
       </c>
       <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
         <v>26</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1156,10 +1156,10 @@
         <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P6" t="n">
         <v>1.3</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.22</v>
@@ -1278,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1296,25 +1296,25 @@
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>7</v>
@@ -1329,19 +1329,19 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>29</v>
@@ -1385,7 +1385,7 @@
         <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1.17</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1665,10 +1665,10 @@
         <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V13" t="n">
         <v>13</v>
@@ -2052,25 +2052,25 @@
         <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>9</v>
       </c>
-      <c r="AG13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>19</v>
@@ -2120,10 +2120,10 @@
         <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2132,10 +2132,10 @@
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2242,10 +2242,10 @@
         <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2376,37 +2376,37 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U16" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="V16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W16" t="n">
         <v>101</v>
       </c>
       <c r="X16" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Y16" t="n">
         <v>250</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="n">
         <v>200</v>
@@ -2415,16 +2415,16 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2496,10 +2496,10 @@
         <v>2.22</v>
       </c>
       <c r="T17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
         <v>7.2</v>
@@ -2508,19 +2508,19 @@
         <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y17" t="n">
         <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC17" t="n">
         <v>40</v>
@@ -2529,16 +2529,16 @@
         <v>250</v>
       </c>
       <c r="AE17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2621,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2651,7 +2651,7 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -1034,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.29</v>
@@ -1162,10 +1162,10 @@
         <v>2.15</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.67</v>
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1278,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1510,10 +1510,10 @@
         <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1998,10 +1998,10 @@
         <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2132,10 +2132,10 @@
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2236,16 +2236,16 @@
         <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.29</v>
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V15" t="n">
         <v>11</v>
@@ -2284,7 +2284,7 @@
         <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
@@ -2368,7 +2368,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="O16" t="n">
         <v>2.6</v>
@@ -2376,10 +2376,10 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="T16" t="n">
         <v>45</v>
@@ -2468,10 +2468,10 @@
         <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
         <v>1.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
         <v>2.22</v>
       </c>
       <c r="T17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
         <v>8.5</v>
@@ -2508,34 +2508,34 @@
         <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.75</v>
       </c>
       <c r="AH17" t="n">
         <v>35</v>
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2847,7 +2847,7 @@
         <v>2.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2969,7 +2969,7 @@
         <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -2996,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3020,7 +3020,7 @@
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,221 +618,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eu6Dyi1f</t>
+          <t>AB7LZ6Dr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ENGLAND - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>23</v>
       </c>
       <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
         <v>29</v>
       </c>
-      <c r="Y2" t="n">
-        <v>51</v>
-      </c>
       <c r="Z2" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EaA6F7Ug</t>
+          <t>tntq0msg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.75</v>
       </c>
-      <c r="N3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="V3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W3" t="n">
         <v>9.5</v>
       </c>
-      <c r="W3" t="n">
-        <v>19</v>
-      </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="n">
         <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -841,221 +841,221 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jD3xsjGa</t>
+          <t>UqMsyH9c</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Atl. Madrid</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>1.09</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.4</v>
       </c>
-      <c r="M4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
         <v>51</v>
       </c>
-      <c r="AD4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>501</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SYnagW9L</t>
+          <t>0xtvNin1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" t="n">
         <v>17</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15</v>
-      </c>
-      <c r="U5" t="n">
-        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1064,31 +1064,31 @@
         <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11</v>
-      </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AG5" t="n">
         <v>9</v>
@@ -1097,417 +1097,417 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OImUmAXr</t>
+          <t>hCxWODHl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>15</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="AG6" t="n">
         <v>15</v>
       </c>
-      <c r="U6" t="n">
-        <v>23</v>
-      </c>
-      <c r="V6" t="n">
-        <v>15</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>51</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kpswnl2e</t>
+          <t>8v1aUZgR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Shenzhen Xinpengcheng</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>11</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF7" t="n">
         <v>13</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>17</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>41</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WYgmolFN</t>
+          <t>4xebFr0b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
         <v>51</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IVBE19a4</t>
+          <t>6F25wDWs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1522,10 +1522,10 @@
         <v>2.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.57</v>
@@ -1534,712 +1534,712 @@
         <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jckeEnqA</t>
+          <t>z3Qkvkxf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.53</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>13</v>
+      </c>
+      <c r="V10" t="n">
+        <v>13</v>
+      </c>
+      <c r="W10" t="n">
+        <v>34</v>
+      </c>
+      <c r="X10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="n">
         <v>5.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
         <v>101</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OUPBNeY9</t>
+          <t>0Qya5Rzg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COSTA RICA - PRIMERA DIVISION</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zeledon</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Guanacasteca</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
         <v>6.5</v>
       </c>
-      <c r="U11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
         <v>19</v>
       </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ddwJLZ2M</t>
+          <t>r5oBoXqK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COSTA RICA - PRIMERA DIVISION</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Herediano</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AD Santos</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
         <v>29</v>
       </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE12" t="n">
         <v>8</v>
       </c>
-      <c r="AB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
         <v>51</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>67</v>
       </c>
       <c r="AI12" t="n">
         <v>51</v>
       </c>
       <c r="AJ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lfIcEied</t>
+          <t>KYGqz0Us</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COSTA RICA - PRIMERA DIVISION</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Puntarenas FC</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Saprissa</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.91</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI13" t="n">
         <v>67</v>
       </c>
-      <c r="AD13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WbBupgso</t>
+          <t>hrTf2F2b</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Ypiranga FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>2.77</v>
       </c>
       <c r="N14" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="n">
-        <v>201</v>
+        <v>700</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lxgAbWUI</t>
+          <t>zDZtznHb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE TWO</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salford</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Doncaster</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2248,344 +2248,364 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O15" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W15" t="n">
         <v>10</v>
       </c>
-      <c r="U15" t="n">
-        <v>15</v>
-      </c>
-      <c r="V15" t="n">
-        <v>11</v>
-      </c>
-      <c r="W15" t="n">
-        <v>34</v>
-      </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uex4LpNh</t>
+          <t>MT5ODe0d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>6.7</v>
+        <v>5.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+        <v>1.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.33</v>
+      </c>
       <c r="N16" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+        <v>2.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.4</v>
+      </c>
       <c r="R16" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U16" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="V16" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="W16" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="X16" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jBQCJOi5</t>
+          <t>6RUTEYCc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BFC Daugavpils</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Super Nova</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>3.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>11</v>
+      </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.75</v>
+      </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>2.22</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="AC17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rPyljpy8</t>
+          <t>vwlIhrde</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>U. Espanola</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Nublense</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2600,10 +2620,10 @@
         <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2621,16 +2641,16 @@
         <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>23</v>
@@ -2651,203 +2671,203 @@
         <v>151</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>34</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OzTQcdfE</t>
+          <t>jJnsiVKj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.2</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T19" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W19" t="n">
+        <v>21</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="n">
         <v>6.5</v>
       </c>
-      <c r="V19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
         <v>34</v>
       </c>
-      <c r="Z19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AI19" t="n">
         <v>23</v>
       </c>
-      <c r="AC19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AJ19" t="n">
         <v>29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2ZJofwEM</t>
+          <t>nB3VcRbT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2877,7 +2897,7 @@
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
         <v>8</v>
@@ -2916,123 +2936,4251 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b55HlHyp</t>
+          <t>nmaFB5Db</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="W21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
       </c>
       <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>lCeW7NCN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA B</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zTP9kFJN</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
         <v>17</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>34</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AsGK7dZi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>19</v>
+      </c>
+      <c r="V24" t="n">
+        <v>13</v>
+      </c>
+      <c r="W24" t="n">
+        <v>41</v>
+      </c>
+      <c r="X24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>v1W0iykB</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>17</v>
+      </c>
+      <c r="V25" t="n">
+        <v>13</v>
+      </c>
+      <c r="W25" t="n">
+        <v>41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>xWS0tFJt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>13</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10</v>
+      </c>
+      <c r="W26" t="n">
+        <v>26</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>044rf6sB</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FRANCE - LIGUE 2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Laval</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K27" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>12</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
         <v>67</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD27" t="n">
         <v>1000</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>bgDgUXCl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ICELAND - BESTA DEILD KARLA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>KR Reykjavik</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18</v>
+      </c>
+      <c r="U28" t="n">
+        <v>22</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>37</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>K812SBs1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ICELAND - BESTA DEILD KARLA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Akranes</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>13</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8bFYtsbn</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>IRELAND - PREMIER DIVISION</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cork City</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fT68f4np</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>11</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>St5GhrHd</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>9</v>
+      </c>
+      <c r="U32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pIZ00fz3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ISRAEL - LIGAT HA'AL</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T33" t="n">
+        <v>11</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>13</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GjBJtz7t</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Carpi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Legnago Salus</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>17</v>
+      </c>
+      <c r="X34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0nyABANi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Foggia</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U35" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="V35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W35" t="n">
         <v>10</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xlKdN6ht</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FK Liepaja</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Jelgava</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W36" t="n">
+        <v>11</v>
+      </c>
+      <c r="X36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t05oIAqd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>13</v>
+      </c>
+      <c r="W37" t="n">
+        <v>34</v>
+      </c>
+      <c r="X37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG37" t="n">
         <v>10</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH37" t="n">
         <v>21</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI37" t="n">
         <v>21</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ37" t="n">
         <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>67QxdaqA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T38" t="n">
+        <v>13</v>
+      </c>
+      <c r="U38" t="n">
+        <v>34</v>
+      </c>
+      <c r="V38" t="n">
+        <v>21</v>
+      </c>
+      <c r="W38" t="n">
+        <v>81</v>
+      </c>
+      <c r="X38" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AJejQd23</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>21</v>
+      </c>
+      <c r="X39" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6Tii3lXh</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Lechia Gdansk</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>11</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>19</v>
+      </c>
+      <c r="X40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Q3FiWB2m</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Termalica B-B.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>13</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>9</v>
+      </c>
+      <c r="U41" t="n">
+        <v>11</v>
+      </c>
+      <c r="V41" t="n">
+        <v>9</v>
+      </c>
+      <c r="W41" t="n">
+        <v>19</v>
+      </c>
+      <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>fVRZDUnJ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tychy</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>S. Rzeszow</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>11</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>19</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bXkwo314</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T43" t="n">
+        <v>7</v>
+      </c>
+      <c r="U43" t="n">
+        <v>10</v>
+      </c>
+      <c r="V43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>21</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M1sA2Lk5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ROMANIA - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T44" t="n">
+        <v>6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>10</v>
+      </c>
+      <c r="W44" t="n">
+        <v>21</v>
+      </c>
+      <c r="X44" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>YP8E6pat</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ROMANIA - SUPERLIGA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>FC Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>13</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CjhNyaBk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T46" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U46" t="n">
+        <v>9</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>17</v>
+      </c>
+      <c r="X46" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>8IoWZxt2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Jedinstvo U.</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>7</v>
+      </c>
+      <c r="V47" t="n">
+        <v>8</v>
+      </c>
+      <c r="W47" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X47" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EBEb8xf2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Domzale</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T48" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W48" t="n">
+        <v>30</v>
+      </c>
+      <c r="X48" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0SUa5CM6</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>10</v>
+      </c>
+      <c r="W49" t="n">
+        <v>19</v>
+      </c>
+      <c r="X49" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>zqnU8cEM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Oster</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>15</v>
+      </c>
+      <c r="V50" t="n">
+        <v>11</v>
+      </c>
+      <c r="W50" t="n">
+        <v>29</v>
+      </c>
+      <c r="X50" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CtZwbt04</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K51" t="n">
+        <v>8</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10</v>
+      </c>
+      <c r="U51" t="n">
+        <v>21</v>
+      </c>
+      <c r="V51" t="n">
+        <v>15</v>
+      </c>
+      <c r="W51" t="n">
+        <v>41</v>
+      </c>
+      <c r="X51" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EyY1bN3N</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T52" t="n">
+        <v>12</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>10</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dI2rm6Mj</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U53" t="n">
+        <v>27</v>
+      </c>
+      <c r="V53" t="n">
+        <v>18</v>
+      </c>
+      <c r="W53" t="n">
+        <v>100</v>
+      </c>
+      <c r="X53" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>n9tFddYj</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U54" t="n">
+        <v>15</v>
+      </c>
+      <c r="V54" t="n">
+        <v>12</v>
+      </c>
+      <c r="W54" t="n">
+        <v>34</v>
+      </c>
+      <c r="X54" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>G4dZGoy3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>14/04/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>12</v>
+      </c>
+      <c r="X55" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -656,28 +656,28 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>2.63</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
@@ -820,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -841,7 +841,7 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -897,40 +897,40 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>12</v>
@@ -945,10 +945,10 @@
         <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -957,7 +957,7 @@
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="n">
         <v>351</v>
@@ -966,7 +966,7 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
@@ -1022,10 +1022,10 @@
         <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1040,10 +1040,10 @@
         <v>2.5</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1061,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1168,16 +1168,16 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V6" t="n">
         <v>15</v>
@@ -1186,10 +1186,10 @@
         <v>51</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
@@ -1198,25 +1198,25 @@
         <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>1.03</v>
@@ -1305,7 +1305,7 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1314,10 +1314,10 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1329,16 +1329,16 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
@@ -1507,7 +1507,7 @@
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1632,10 +1632,10 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1778,22 +1778,22 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1811,7 +1811,7 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
         <v>351</v>
@@ -1820,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -1829,7 +1829,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
         <v>41</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2067,7 +2067,7 @@
         <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2368,7 +2368,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
         <v>2.6</v>
@@ -2376,10 +2376,10 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
         <v>45</v>
@@ -2579,49 +2579,49 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2630,13 +2630,13 @@
         <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2648,10 +2648,10 @@
         <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
         <v>5.75</v>
@@ -2716,16 +2716,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2734,16 +2734,16 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2758,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
@@ -2770,10 +2770,10 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
@@ -2844,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -647,25 +647,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
         <v>4</v>
@@ -674,46 +674,46 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD2" t="n">
         <v>101</v>
@@ -722,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -900,10 +900,10 @@
         <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1028,16 +1028,16 @@
         <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.29</v>
@@ -1046,13 +1046,13 @@
         <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
         <v>19</v>
@@ -1070,13 +1070,13 @@
         <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>34</v>
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>1.67</v>
@@ -1150,28 +1150,28 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.8</v>
       </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -1192,25 +1192,25 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
         <v>201</v>
       </c>
       <c r="AE6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>4.33</v>
@@ -1272,34 +1272,34 @@
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1314,13 +1314,13 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="n">
         <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
@@ -1329,16 +1329,16 @@
         <v>151</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
@@ -1632,10 +1632,10 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1754,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -2120,22 +2120,22 @@
         <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2296,13 +2296,13 @@
         <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -2355,82 +2355,82 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="T16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U16" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="V16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W16" t="n">
         <v>101</v>
       </c>
       <c r="X16" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Y16" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2468,10 +2468,10 @@
         <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2482,10 +2482,10 @@
         <v>3.9</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O17" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -2496,34 +2496,34 @@
         <v>2.21</v>
       </c>
       <c r="T17" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="U17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X17" t="n">
         <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB17" t="n">
         <v>10.75</v>
       </c>
       <c r="AC17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="n">
         <v>250</v>
@@ -2532,19 +2532,19 @@
         <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
         <v>8.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2582,46 +2582,46 @@
         <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2630,34 +2630,34 @@
         <v>19</v>
       </c>
       <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF18" t="n">
         <v>17</v>
       </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AG18" t="n">
         <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2701,19 +2701,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2722,34 +2722,34 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
+        <v>6</v>
+      </c>
+      <c r="U19" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>7</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2761,7 +2761,7 @@
         <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2770,22 +2770,22 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ19" t="n">
         <v>51</v>
@@ -2823,82 +2823,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
         <v>13</v>
       </c>
       <c r="V20" t="n">
+        <v>10</v>
+      </c>
+      <c r="W20" t="n">
+        <v>26</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="n">
         <v>11</v>
       </c>
-      <c r="W20" t="n">
-        <v>29</v>
-      </c>
-      <c r="X20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>8</v>
-      </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>10</v>
@@ -2907,10 +2907,10 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2945,13 +2945,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2993,10 +2993,10 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
+        <v>41</v>
+      </c>
+      <c r="X21" t="n">
         <v>34</v>
-      </c>
-      <c r="X21" t="n">
-        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3017,10 +3017,10 @@
         <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -668,16 +668,16 @@
         <v>1.8</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
@@ -826,13 +826,13 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
@@ -841,7 +841,7 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -939,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
+        <v>29</v>
+      </c>
+      <c r="X4" t="n">
         <v>26</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -963,7 +963,7 @@
         <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>12</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1046,61 +1046,61 @@
         <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U5" t="n">
+        <v>23</v>
+      </c>
+      <c r="V5" t="n">
         <v>13</v>
       </c>
-      <c r="U5" t="n">
-        <v>19</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11</v>
-      </c>
       <c r="W5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
         <v>13</v>
       </c>
-      <c r="AG5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
         <v>1.67</v>
@@ -1150,28 +1150,28 @@
         <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O6" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -1186,31 +1186,31 @@
         <v>51</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1278,10 +1278,10 @@
         <v>4.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.3</v>
@@ -1296,10 +1296,10 @@
         <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1314,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1335,16 +1335,16 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.67</v>
@@ -1400,16 +1400,16 @@
         <v>2.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>2.5</v>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
@@ -1451,10 +1451,10 @@
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
@@ -1466,7 +1466,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1501,82 +1501,82 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.67</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1588,7 +1588,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -2001,7 +2001,7 @@
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2236,10 +2236,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2254,25 +2254,25 @@
         <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2284,16 +2284,16 @@
         <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2305,7 +2305,7 @@
         <v>251</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
@@ -2314,10 +2314,10 @@
         <v>9.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
         <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2358,7 +2358,7 @@
         <v>17.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>1.13</v>
@@ -2379,7 +2379,7 @@
         <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="T16" t="n">
         <v>40</v>
@@ -2400,37 +2400,37 @@
         <v>150</v>
       </c>
       <c r="Z16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="n">
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2468,83 +2468,87 @@
         <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="N17" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+        <v>1.78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S17" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
         <v>7.5</v>
       </c>
       <c r="W17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG17" t="n">
         <v>9</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>8.75</v>
       </c>
       <c r="AH17" t="n">
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2579,19 +2583,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2612,25 +2616,25 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -2639,7 +2643,7 @@
         <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2651,19 +2655,19 @@
         <v>301</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2701,10 +2705,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
         <v>6.5</v>
@@ -2716,31 +2720,31 @@
         <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U19" t="n">
         <v>6.5</v>
@@ -2752,16 +2756,16 @@
         <v>9.5</v>
       </c>
       <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
       <c r="AA19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2770,10 +2774,10 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
@@ -2844,10 +2848,10 @@
         <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O20" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -656,28 +656,28 @@
         <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -790,22 +790,22 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1138,16 +1138,16 @@
         <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
         <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
         <v>1.22</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1168,10 +1168,10 @@
         <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -1189,13 +1189,13 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1204,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>8.5</v>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1272,16 +1272,16 @@
         <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P7" t="n">
         <v>1.3</v>
@@ -1290,22 +1290,22 @@
         <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1314,13 +1314,13 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
@@ -1335,16 +1335,16 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1379,94 +1379,94 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
         <v>5.5</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5</v>
-      </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
         <v>1.62</v>
@@ -1534,22 +1534,22 @@
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1558,10 +1558,10 @@
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -1588,7 +1588,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1826,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1998,10 +1998,10 @@
         <v>1.95</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2233,46 +2233,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2281,34 +2281,34 @@
         <v>11</v>
       </c>
       <c r="W15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>34</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>9.5</v>
@@ -2317,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I16" t="n">
         <v>1.13</v>
@@ -2368,33 +2368,33 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="S16" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="T16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="V16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W16" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="X16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Y16" t="n">
         <v>150</v>
@@ -2415,16 +2415,16 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI16" t="n">
         <v>9.25</v>
@@ -2465,90 +2465,90 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="U17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="W17" t="n">
         <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -2616,22 +2616,22 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2643,7 +2643,7 @@
         <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2658,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2711,7 +2711,7 @@
         <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2726,10 +2726,10 @@
         <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2738,16 +2738,16 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
       </c>
       <c r="U19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2783,7 +2783,7 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>81</v>
@@ -2830,7 +2830,7 @@
         <v>2.63</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>2.55</v>
@@ -2848,22 +2848,22 @@
         <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
         <v>9.5</v>
@@ -2881,10 +2881,10 @@
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2896,10 +2896,10 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -2911,10 +2911,10 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2997,10 +2997,10 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3018,13 +3018,13 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -650,16 +650,16 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -674,16 +674,16 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
         <v>4.5</v>
@@ -698,16 +698,16 @@
         <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -719,7 +719,7 @@
         <v>101</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -734,7 +734,7 @@
         <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -808,19 +808,19 @@
         <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>34</v>
@@ -835,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,10 +930,10 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -966,16 +966,16 @@
         <v>7</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1406,10 +1406,10 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>2.2</v>
@@ -1421,13 +1421,13 @@
         <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
         <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X8" t="n">
         <v>19</v>
@@ -1436,16 +1436,16 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
@@ -1457,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>51</v>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
@@ -1567,13 +1567,13 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1623,37 +1623,37 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -1662,19 +1662,19 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1683,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1692,7 +1692,7 @@
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1748,7 +1748,7 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -1802,13 +1802,13 @@
         <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>67</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1900,16 +1900,16 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1933,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
         <v>351</v>
@@ -2135,22 +2135,22 @@
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U14" t="n">
         <v>13</v>
@@ -2174,16 +2174,16 @@
         <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
         <v>13</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.05</v>
@@ -2254,10 +2254,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2272,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2281,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="W15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
@@ -2308,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -2355,58 +2355,58 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="H16" t="n">
         <v>6.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O16" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="T16" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U16" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="V16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="W16" t="n">
         <v>600</v>
       </c>
       <c r="X16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y16" t="n">
         <v>150</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC16" t="n">
         <v>120</v>
@@ -2415,7 +2415,7 @@
         <v>101</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF16" t="n">
         <v>5.2</v>
@@ -2424,13 +2424,13 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI16" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2465,42 +2465,42 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
         <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
         <v>8.5</v>
@@ -2509,46 +2509,46 @@
         <v>7.7</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X17" t="n">
         <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB17" t="n">
         <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD17" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG17" t="n">
         <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2604,10 +2604,10 @@
         <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2616,16 +2616,16 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
         <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2652,13 +2652,13 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
         <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2720,16 +2720,16 @@
         <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2753,7 +2753,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>12</v>
@@ -2765,16 +2765,16 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -2786,13 +2786,13 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI19" t="n">
         <v>51</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2842,16 +2842,16 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P20" t="n">
         <v>1.36</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2997,10 +2997,10 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
+        <v>41</v>
+      </c>
+      <c r="X21" t="n">
         <v>34</v>
-      </c>
-      <c r="X21" t="n">
-        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3021,10 +3021,10 @@
         <v>1250</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -674,10 +674,10 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>2.75</v>
@@ -778,10 +778,10 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -900,10 +900,10 @@
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -1388,10 +1388,10 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
         <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
@@ -1567,7 +1567,7 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
@@ -1576,7 +1576,7 @@
         <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1588,7 +1588,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1623,67 +1623,67 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U10" t="n">
         <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
         <v>19</v>
@@ -1695,13 +1695,13 @@
         <v>1250</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1909,7 +1909,7 @@
         <v>6.5</v>
       </c>
       <c r="U12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1933,19 +1933,19 @@
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -2016,7 +2016,7 @@
         <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q13" t="n">
         <v>2.5</v>
@@ -2058,7 +2058,7 @@
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2138,10 +2138,10 @@
         <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R14" t="n">
         <v>1.8</v>
@@ -2233,46 +2233,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
+        <v>13</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T15" t="n">
         <v>11</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2281,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="W15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>6.5</v>
@@ -2302,13 +2302,13 @@
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>9.5</v>
@@ -2317,7 +2317,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>26</v>
@@ -2468,10 +2468,10 @@
         <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2482,10 +2482,10 @@
         <v>2.9</v>
       </c>
       <c r="N17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
         <v>1.39</v>
@@ -2500,49 +2500,49 @@
         <v>1.83</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>17</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="W17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8.25</v>
       </c>
       <c r="AA17" t="n">
         <v>5.4</v>
       </c>
       <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF17" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11.75</v>
       </c>
       <c r="AG17" t="n">
         <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -2604,10 +2604,10 @@
         <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2708,16 +2708,16 @@
         <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
         <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2726,73 +2726,73 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
         <v>2.05</v>
       </c>
-      <c r="P19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
         <v>8.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="n">
         <v>51</v>
       </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2842,31 +2842,31 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U20" t="n">
         <v>13</v>
@@ -2881,10 +2881,10 @@
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2896,10 +2896,10 @@
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -2908,13 +2908,13 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2970,10 +2970,10 @@
         <v>2.63</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.53</v>
@@ -2982,10 +2982,10 @@
         <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2997,16 +2997,16 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
@@ -3021,19 +3021,19 @@
         <v>1250</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -704,7 +704,7 @@
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>3.5</v>
@@ -796,10 +796,10 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -835,16 +835,16 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="n">
         <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -900,10 +900,10 @@
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -1394,10 +1394,10 @@
         <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.5</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1665,7 +1665,7 @@
         <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1683,13 +1683,13 @@
         <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
         <v>1250</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.4</v>
@@ -1766,10 +1766,10 @@
         <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1778,22 +1778,22 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1817,13 +1817,13 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -1832,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1888,10 +1888,10 @@
         <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>1.36</v>
@@ -1900,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>6.5</v>
@@ -1918,10 +1918,10 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
@@ -1939,16 +1939,16 @@
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
         <v>51</v>
@@ -2016,7 +2016,7 @@
         <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
         <v>2.5</v>
@@ -2120,28 +2120,28 @@
         <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P14" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
         <v>1.8</v>
@@ -2254,13 +2254,13 @@
         <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
@@ -2598,10 +2598,10 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
@@ -2714,22 +2714,22 @@
         <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2842,16 +2842,16 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
         <v>1.1</v>
@@ -2976,16 +2976,16 @@
         <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>8</v>
@@ -2997,10 +2997,10 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
+        <v>41</v>
+      </c>
+      <c r="X21" t="n">
         <v>34</v>
-      </c>
-      <c r="X21" t="n">
-        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -3018,10 +3018,10 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>10</v>
@@ -3030,10 +3030,10 @@
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -650,16 +650,16 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -671,13 +671,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>2.75</v>
@@ -689,7 +689,7 @@
         <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
         <v>12</v>
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>3.5</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -844,7 +844,7 @@
         <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -930,25 +930,25 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
@@ -963,19 +963,19 @@
         <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
         <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1400,16 +1400,16 @@
         <v>2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
         <v>2.2</v>
@@ -1445,7 +1445,7 @@
         <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
         <v>101</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1516,40 +1516,40 @@
         <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1567,28 +1567,28 @@
         <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -1632,16 +1632,16 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.5</v>
@@ -1650,10 +1650,10 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
         <v>2.2</v>
@@ -1665,7 +1665,7 @@
         <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1757,19 +1757,19 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
         <v>1.5</v>
@@ -1787,7 +1787,7 @@
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
@@ -1805,7 +1805,7 @@
         <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
@@ -1867,46 +1867,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1924,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
@@ -1936,10 +1936,10 @@
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
@@ -1995,7 +1995,7 @@
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2114,16 +2114,16 @@
         <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2138,19 +2138,19 @@
         <v>1.83</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
         <v>13</v>
@@ -2174,16 +2174,16 @@
         <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>13</v>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
@@ -2598,16 +2598,16 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2714,10 +2714,10 @@
         <v>6.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
@@ -2726,10 +2726,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2884,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2899,7 +2899,7 @@
         <v>201</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
@@ -2908,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.2</v>
@@ -671,19 +671,19 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
         <v>4.5</v>
@@ -698,13 +698,13 @@
         <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
         <v>67</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.1</v>
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.53</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.11</v>
@@ -1516,16 +1516,16 @@
         <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
         <v>1.57</v>
@@ -1543,22 +1543,22 @@
         <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6</v>
@@ -1573,16 +1573,16 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
@@ -1629,13 +1629,13 @@
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>1.5</v>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>51</v>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
@@ -1882,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>1.7</v>
@@ -1995,7 +1995,7 @@
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>1.07</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2132,10 +2132,10 @@
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2150,22 +2150,22 @@
         <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W14" t="n">
+        <v>21</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
         <v>26</v>
-      </c>
-      <c r="X14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>10</v>
@@ -2183,22 +2183,22 @@
         <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
@@ -2598,22 +2598,22 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R18" t="n">
         <v>1.95</v>
@@ -2711,7 +2711,7 @@
         <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2726,10 +2726,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2744,7 +2744,7 @@
         <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -775,13 +775,13 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -2583,19 +2583,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2610,22 +2610,22 @@
         <v>1.75</v>
       </c>
       <c r="P18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.95</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
@@ -2640,10 +2640,10 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2652,16 +2652,16 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2726,25 +2726,25 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
         <v>6.5</v>
@@ -2753,7 +2753,7 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2765,7 +2765,7 @@
         <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2777,16 +2777,16 @@
         <v>451</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI19" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-15.xlsx
@@ -778,10 +778,10 @@
         <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.5</v>
@@ -1671,7 +1671,7 @@
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
         <v>19</v>
@@ -1695,7 +1695,7 @@
         <v>1250</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
@@ -1867,31 +1867,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
         <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1900,10 +1900,10 @@
         <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>7.5</v>
@@ -1915,7 +1915,7 @@
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -1927,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
@@ -1939,10 +1939,10 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2028,10 +2028,10 @@
         <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V13" t="n">
         <v>13</v>
@@ -2040,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>41</v>
@@ -2049,31 +2049,31 @@
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
         <v>67</v>
       </c>
       <c r="AD13" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG13" t="n">
         <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2583,31 +2583,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2616,22 +2616,22 @@
         <v>2.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2640,10 +2640,10 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2652,10 +2652,10 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -2667,7 +2667,7 @@
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
         <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2726,10 +2726,10 @@
         <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.4</v>
@@ -2738,13 +2738,13 @@
         <v>2.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
         <v>6.5</v>
@@ -2762,10 +2762,10 @@
         <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -2774,13 +2774,13 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
